--- a/EE02.xlsx
+++ b/EE02.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CVM\2014_2_Automne\A11\Documents\03 Microsoft Excel\Exercice02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olimo\remise\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC89BF1-E093-4EBF-860A-59A0182983DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22110" windowHeight="9285"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultat attendu" sheetId="1" r:id="rId1"/>
     <sheet name="Données brutes" sheetId="2" r:id="rId2"/>
     <sheet name="Objectifs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -134,13 +148,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +304,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="2" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +393,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -476,12 +531,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -560,10 +645,10 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -580,10 +665,10 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -637,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -649,7 +734,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -658,7 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -669,20 +754,20 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -692,19 +777,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -742,10 +820,81 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,6 +991,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -877,6 +1043,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1052,26 +1235,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AS50" sqref="AS50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16.2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1081,23 +1264,23 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
+    <row r="4" spans="2:10" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-    </row>
-    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+    </row>
+    <row r="5" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -1108,7 +1291,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
@@ -1117,7 +1300,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
@@ -1126,7 +1309,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16" t="s">
@@ -1136,7 +1319,7 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1153,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="11.4" x14ac:dyDescent="0.2">
       <c r="B12" s="20">
         <v>1</v>
       </c>
@@ -1226,7 +1409,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="11.4" x14ac:dyDescent="0.2">
       <c r="B16" s="31">
         <v>5</v>
       </c>
@@ -1312,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="39">
         <v>10</v>
       </c>
@@ -1330,7 +1513,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D23" s="43" t="s">
         <v>13</v>
       </c>
@@ -1352,7 +1535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D26" s="50" t="s">
         <v>13</v>
       </c>
@@ -1377,7 +1560,7 @@
         <v>579.99900000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="57" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +1575,7 @@
     <row r="30" spans="2:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D30" s="53"/>
     </row>
-    <row r="31" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="60" t="s">
         <v>17</v>
       </c>
@@ -1414,356 +1597,439 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="11.5703125" style="63" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="63"/>
-    <col min="9" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="2" width="11.5546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.5546875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="63"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="63" t="s">
+    <row r="2" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+    </row>
+    <row r="4" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-    </row>
-    <row r="6" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="63" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+    </row>
+    <row r="5" spans="2:10" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="83" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="63" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="84" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="63" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="84" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="63" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+    </row>
+    <row r="9" spans="2:10" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="85" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="63" t="s">
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+    </row>
+    <row r="11" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="63">
+    <row r="12" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="76">
         <v>1</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="76">
         <v>15</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="79">
         <v>45</v>
       </c>
+      <c r="F12" s="80">
+        <f>D12*E12</f>
+        <v>675</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="63">
+    <row r="13" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="76">
         <v>2</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="76">
         <v>2</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="79">
         <v>499.99</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="63">
+      <c r="F13" s="80">
+        <f t="shared" ref="F13:F15" si="0">D13*E13</f>
+        <v>999.98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="76">
         <v>3</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="76">
         <v>5</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="79">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="63">
+      <c r="F14" s="80">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="76">
         <v>4</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="76">
         <v>120</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="79">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="63">
+      <c r="F15" s="80">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="76">
         <v>5</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="65" t="s">
+      <c r="E16" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="81" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="63">
+    <row r="17" spans="2:6" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="76">
         <v>6</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="63">
+      <c r="E17" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="76">
         <v>7</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="63">
-        <v>8</v>
-      </c>
-      <c r="C19" s="65" t="s">
+      <c r="E18" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="76">
+        <v>8</v>
+      </c>
+      <c r="C19" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="63">
+      <c r="E19" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="76">
         <v>9</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="63">
+      <c r="E20" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="76">
         <v>10</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="63" t="s">
+      <c r="E21" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="63" t="s">
+      <c r="E23" s="91"/>
+      <c r="F23" s="96">
+        <f>SUM(F12:F15)</f>
+        <v>12099.98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="87"/>
+    </row>
+    <row r="25" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="64">
+      <c r="E25" s="90"/>
+      <c r="F25" s="95">
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="63" t="s">
+    <row r="26" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="63" t="s">
+      <c r="E26" s="90"/>
+      <c r="F26" s="95">
+        <f>F23-F25</f>
+        <v>11599.98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="89"/>
+    </row>
+    <row r="28" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="98">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="63" t="s">
+      <c r="F28" s="93">
+        <f>F26*E28</f>
+        <v>579.99900000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="97">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="F29" s="64"/>
-    </row>
-    <row r="31" spans="2:6" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="63" t="s">
+      <c r="F29" s="94">
+        <f>F26*E29</f>
+        <v>1157.0980050000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="87"/>
+    </row>
+    <row r="31" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="90" t="s">
         <v>17</v>
       </c>
+      <c r="E31" s="90"/>
+      <c r="F31" s="93">
+        <f>F29+F28+F26</f>
+        <v>13337.077004999999</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="100" style="3" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="1.6640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="65" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="77"/>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="77"/>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="77"/>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="66" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="77"/>
-      <c r="D8" s="71" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="68" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="67"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="69" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="77"/>
-      <c r="D11" s="73" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="70" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="77"/>
-      <c r="D12" s="74" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="71" t="s">
         <v>34</v>
       </c>
     </row>
